--- a/2024AIDataScienceGNRClub/Attendance.xlsx
+++ b/2024AIDataScienceGNRClub/Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRClub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D73DE5-0717-4AA7-A6A0-1D4BC074E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329D7A-33FB-42FD-9285-3A7EE770CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3396" windowWidth="16176" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB1B165-9200-4089-B05B-75C13E96CEAA}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,6 +1761,44 @@
       </c>
       <c r="J57" t="s">
         <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/2024AIDataScienceGNRClub/Attendance.xlsx
+++ b/2024AIDataScienceGNRClub/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2024AIDataScienceGNRClub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329D7A-33FB-42FD-9285-3A7EE770CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1603C3A4-1B02-443C-92CC-87CEA98650DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3396" windowWidth="16176" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB1B165-9200-4089-B05B-75C13E96CEAA}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,6 +1798,41 @@
         <v>8</v>
       </c>
       <c r="K59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
         <v>12</v>
       </c>
     </row>
